--- a/biology/Zoologie/Brachistosternus_ehrenbergii/Brachistosternus_ehrenbergii.xlsx
+++ b/biology/Zoologie/Brachistosternus_ehrenbergii/Brachistosternus_ehrenbergii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachistosternus ehrenbergii est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou dans les régions de Lima, d'Ica, d'Arequipa, de Moquegua et de Tacna et au Chili dans les régions de Tarapacá et d'Arica et Parinacota[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou dans les régions de Lima, d'Ica, d'Arequipa, de Moquegua et de Tacna et au Chili dans les régions de Tarapacá et d'Arica et Parinacota.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par  en mesure 79,5 mm et la femelle 70,9 mm, les mâles mesurent de 60,2 à 89,3 mm et les femelles jusqu'à 93,7 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par  en mesure 79,5 mm et la femelle 70,9 mm, les mâles mesurent de 60,2 à 89,3 mm et les femelles jusqu'à 93,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christian Gottfried Ehrenberg[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christian Gottfried Ehrenberg.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gervais, 1841 : Arachnides. Voyage autour du monde exécuté pendant les années 1836 et 1837 sur la corvette La Bonite, commandée par M. Vaillant. Publié par ordre du roi sous les auspices du Département de la Marine. Zoologie. Aptères. Paris, Arthus Bertrand, p. 281–285.</t>
         </is>
